--- a/results/I3_N5_M3_T30_C200_DepLowerLeft_s4_mean_res.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepLowerLeft_s4_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.1743708687662</v>
+        <v>36.5508688405959</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1529998779296875</v>
+        <v>0.1009998321533203</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.1743708687662</v>
+        <v>36.5508688405959</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.28956874289232</v>
+        <v>24.28956874289244</v>
       </c>
     </row>
     <row r="4">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21.61595173195231</v>
+        <v>21.61595173195239</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>27.11679712152658</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>160.1039999999562</v>
+        <v>123.4</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>87.37200000000486</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>56.24800000001108</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>155.9169999999629</v>
+        <v>125.6</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>67.25300000000244</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>160.1039999999301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>67.25300000002063</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>155.9169999999403</v>
+        <v>123.4</v>
       </c>
     </row>
   </sheetData>
